--- a/xlsxRead/data.xlsx
+++ b/xlsxRead/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -34,13 +34,7 @@
     <t xml:space="preserve">ZenaBeton</t>
   </si>
   <si>
-    <t xml:space="preserve">t4200</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZenaBeton2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t459</t>
   </si>
   <si>
     <t xml:space="preserve">ZenaBeton3</t>
@@ -167,7 +161,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -180,29 +174,29 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="110.012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="110.975708502024"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -241,8 +235,8 @@
       <c r="B2" s="4" t="n">
         <v>4200</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="n">
+        <v>4200</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -264,13 +258,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>4599</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+      <c r="C3" s="4" t="n">
+        <v>459</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -292,7 +286,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>6500</v>
